--- a/app/Licenciatura_em_Agro_Processamento.xlsx
+++ b/app/Licenciatura_em_Agro_Processamento.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Benedita F. Da Silva</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>Flora Julai Mucuho</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>Benvinda Mauricio</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>080101039322P</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>Violeta Guambe</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110502752923F</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>Rosa Mafunda Julai Sitole</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070101202691B</t>
   </si>
   <si>
@@ -336,9 +321,6 @@
     <t>Teresa Antonio</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -372,9 +354,6 @@
     <t>Luisa Fernando</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>080504800071M</t>
   </si>
   <si>
@@ -399,9 +378,6 @@
     <t>Olinda Simiao Bila</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101630063P</t>
   </si>
   <si>
@@ -426,9 +402,6 @@
     <t>Isilda Boavida Muchanga</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>090700683852m</t>
   </si>
   <si>
@@ -453,9 +426,6 @@
     <t>Raquel Fernando Massora</t>
   </si>
   <si>
-    <t>Distrito de Búzi</t>
-  </si>
-  <si>
     <t>070201096996J</t>
   </si>
   <si>
@@ -480,9 +450,6 @@
     <t>Belinda Cecilia Fernando</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080100876196I</t>
   </si>
   <si>
@@ -546,9 +513,6 @@
     <t>Alice Andrade Chemane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -573,9 +537,6 @@
     <t>Jarda Miguel</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>070101907700B</t>
   </si>
   <si>
@@ -597,9 +558,6 @@
     <t>Zinha Antonio Chapo</t>
   </si>
   <si>
-    <t>Distrito de Marromeu</t>
-  </si>
-  <si>
     <t>07030110080B</t>
   </si>
   <si>
@@ -624,9 +582,6 @@
     <t>Maria Viagem Maquina</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060104050909I</t>
   </si>
   <si>
@@ -648,9 +603,6 @@
     <t>AmÉlia Francisco Da Silva</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100335070J</t>
   </si>
   <si>
@@ -672,9 +624,6 @@
     <t>RosÁlia Pedro Banze</t>
   </si>
   <si>
-    <t>Distrito de Manjacaze</t>
-  </si>
-  <si>
     <t>090102464347Q</t>
   </si>
   <si>
@@ -715,9 +664,6 @@
   </si>
   <si>
     <t>Rosa Coneia</t>
-  </si>
-  <si>
-    <t>Distrito de Cuamba</t>
   </si>
   <si>
     <t>010202472801B</t>
@@ -1986,7 +1932,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2002,7 +1948,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2018,7 +1964,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2034,7 +1980,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2050,7 +1996,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2065,9 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2075,7 +2019,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2086,7 +2030,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2095,7 +2039,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2107,7 +2051,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2115,7 +2059,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2211,7 +2155,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2254,7 +2198,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2581,7 +2525,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2597,7 +2541,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2613,7 +2557,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2629,7 +2573,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2645,7 +2589,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2660,9 +2604,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2670,7 +2612,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2681,7 +2623,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2690,7 +2632,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2702,7 +2644,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2710,7 +2652,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2806,7 +2748,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2849,7 +2791,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3176,7 +3118,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3192,7 +3134,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3208,7 +3150,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3224,7 +3166,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3240,7 +3182,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3255,9 +3197,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3265,7 +3205,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3276,7 +3216,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3285,7 +3225,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3297,7 +3237,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3305,7 +3245,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3401,7 +3341,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3444,7 +3384,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3771,7 +3711,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3787,7 +3727,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3803,7 +3743,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3819,7 +3759,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3835,7 +3775,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3850,9 +3790,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3860,7 +3798,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3871,7 +3809,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3880,7 +3818,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3892,7 +3830,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3900,7 +3838,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3996,7 +3934,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4039,7 +3977,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4366,7 +4304,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4382,7 +4320,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4398,7 +4336,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4414,7 +4352,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4430,7 +4368,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4445,9 +4383,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4455,7 +4391,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4466,7 +4402,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4475,7 +4411,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4487,7 +4423,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4495,7 +4431,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4591,7 +4527,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4634,7 +4570,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4961,7 +4897,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4977,7 +4913,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4993,7 +4929,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5009,7 +4945,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5025,7 +4961,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5040,9 +4976,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5050,7 +4984,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5061,7 +4995,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5070,7 +5004,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5082,7 +5016,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5186,7 +5120,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5229,7 +5163,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5556,7 +5490,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5572,7 +5506,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5588,7 +5522,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5604,7 +5538,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5620,7 +5554,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5635,9 +5569,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5645,7 +5577,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5656,7 +5588,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5665,7 +5597,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5677,7 +5609,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5781,7 +5713,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5824,7 +5756,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6151,7 +6083,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6167,7 +6099,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6183,7 +6115,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6199,7 +6131,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6215,7 +6147,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6230,9 +6162,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6240,7 +6170,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6251,7 +6181,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6260,7 +6190,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6272,7 +6202,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6280,7 +6210,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6376,7 +6306,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6419,7 +6349,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6746,7 +6676,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6762,7 +6692,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6778,7 +6708,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6794,7 +6724,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6810,7 +6740,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6825,9 +6755,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6835,7 +6763,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6846,7 +6774,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6855,7 +6783,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6867,7 +6795,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6875,7 +6803,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6971,7 +6899,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7014,7 +6942,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7341,7 +7269,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7357,7 +7285,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7373,7 +7301,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7389,7 +7317,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7405,7 +7333,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7420,9 +7348,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>194</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7430,7 +7356,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7441,7 +7367,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7450,7 +7376,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7462,7 +7388,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7470,7 +7396,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7566,7 +7492,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7609,7 +7535,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8015,9 +7941,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8025,7 +7949,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8036,7 +7960,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8045,7 +7969,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8057,7 +7981,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8065,7 +7989,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8161,7 +8085,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8204,7 +8128,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8531,7 +8455,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8547,7 +8471,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8563,7 +8487,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8579,7 +8503,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8595,7 +8519,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8610,9 +8534,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>202</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8620,7 +8542,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8631,7 +8553,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8640,7 +8562,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8652,7 +8574,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8660,7 +8582,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8756,7 +8678,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8799,7 +8721,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9126,7 +9048,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9142,7 +9064,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9158,7 +9080,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9174,7 +9096,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9190,7 +9112,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9205,9 +9127,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9215,7 +9135,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9226,7 +9146,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9235,7 +9155,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9247,7 +9167,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9255,7 +9175,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9351,7 +9271,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9394,7 +9314,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9721,7 +9641,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9737,7 +9657,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9753,7 +9673,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9769,7 +9689,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9785,7 +9705,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9800,9 +9720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9810,7 +9728,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9821,7 +9739,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9830,7 +9748,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9842,7 +9760,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9850,7 +9768,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9946,7 +9864,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9989,7 +9907,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10316,7 +10234,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10332,7 +10250,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10348,7 +10266,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10364,7 +10282,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10380,7 +10298,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10395,9 +10313,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10405,7 +10321,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10416,7 +10332,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10425,7 +10341,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10437,7 +10353,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10445,7 +10361,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10541,7 +10457,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10584,7 +10500,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10967,7 +10883,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10983,7 +10899,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10999,7 +10915,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11015,7 +10931,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11031,7 +10947,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11046,9 +10962,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11056,7 +10970,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11067,7 +10981,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11076,7 +10990,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11088,7 +11002,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11192,7 +11106,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11235,7 +11149,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11562,7 +11476,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11578,7 +11492,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11594,7 +11508,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11610,7 +11524,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11626,7 +11540,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11641,9 +11555,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11651,7 +11563,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11662,7 +11574,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11671,7 +11583,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11683,7 +11595,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11691,7 +11603,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11787,7 +11699,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11830,7 +11742,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12157,7 +12069,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12173,7 +12085,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12189,7 +12101,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12205,7 +12117,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12221,7 +12133,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12236,9 +12148,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12246,7 +12156,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12257,7 +12167,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12266,7 +12176,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12278,7 +12188,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12286,7 +12196,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12382,7 +12292,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12425,7 +12335,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12752,7 +12662,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12768,7 +12678,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12784,7 +12694,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12800,7 +12710,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12816,7 +12726,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12831,9 +12741,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12841,7 +12749,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12852,7 +12760,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12861,7 +12769,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12873,7 +12781,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12881,7 +12789,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12977,7 +12885,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13020,7 +12928,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13347,7 +13255,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13363,7 +13271,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13379,7 +13287,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13395,7 +13303,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13411,7 +13319,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13426,9 +13334,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13436,7 +13342,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13447,7 +13353,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13456,7 +13362,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13468,7 +13374,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13476,7 +13382,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13572,7 +13478,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13615,7 +13521,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13942,7 +13848,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13958,7 +13864,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14149,7 +14055,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14515,7 +14421,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14531,7 +14437,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14547,7 +14453,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14563,7 +14469,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14579,7 +14485,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14594,9 +14500,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14604,7 +14508,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14615,7 +14519,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14624,7 +14528,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14636,7 +14540,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14644,7 +14548,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14740,7 +14644,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14783,7 +14687,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
